--- a/proVidioETG/testDate/GiftCertificateCodesForGc.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodesForGc.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">codes for  only Gc</t>
   </si>
   <si>
-    <t xml:space="preserve">PHRYDKLLATODKYAF </t>
+    <t xml:space="preserve">PZILKOQOMISZTWVP</t>
   </si>
 </sst>
 </file>
